--- a/MS1/Konzept/Projektplan.xlsx
+++ b/MS1/Konzept/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC355350-6C31-4043-9A32-EF97CA2D640E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9590CD36-899C-4836-87AA-47A2342C92BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -463,6 +463,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -590,6 +591,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -890,30 +904,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -921,18 +935,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="17">
         <v>0.58333333333333337</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -940,676 +954,684 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="21">
         <v>0.125</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>0.20833333333333334</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="21">
         <v>0.125</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="18" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <v>0.125</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="20">
+      <c r="D11" s="19"/>
+      <c r="E11" s="21">
         <v>0.125</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="22">
         <v>0.125</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="51">
+        <v>2.125</v>
+      </c>
+      <c r="F12" s="26"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20">
+      <c r="D13" s="19"/>
+      <c r="E13" s="21">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="20">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="E15" s="21">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="35" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="F18" s="20"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="F19" s="20"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="21">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="F24" s="20"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="21">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="F25" s="20"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="27"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="39">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" ht="30">
+      <c r="A33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="54">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="34">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="34">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="52"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="34">
         <v>0.125</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="26"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="33">
+        <v>3.75</v>
+      </c>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="33">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="55">
+        <v>7.75</v>
+      </c>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="33">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="33">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="33">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="28">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="37"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0.125</v>
-      </c>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="38">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="F31" s="37"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="34">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="33">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="33">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="33">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="33">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="42"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="33">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="42"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="34">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="34">
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6" ht="30">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="F45" s="42"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="F47" s="42"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="32">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="41"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="32">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="32">
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="F52" s="42"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="32">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F53" s="42"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="42"/>
-    </row>
-    <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="34">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F56" s="45"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="39">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="8" t="s">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="38">
+      <c r="D57" s="9"/>
+      <c r="E57" s="39">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48">
+      <c r="D58" s="48"/>
+      <c r="E58" s="49">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F58" s="49"/>
+      <c r="F58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/MS1/Konzept/Projektplan.xlsx
+++ b/MS1/Konzept/Projektplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9590CD36-899C-4836-87AA-47A2342C92BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A757C3B8-5D6D-4513-9AD3-7B3253063BF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>Erfordernis- / Anforderungsermittlung</t>
   </si>
   <si>
-    <t xml:space="preserve">UseCases </t>
+    <t>UseCases (Aufgabenmodellierung)</t>
   </si>
   <si>
     <t>Designmodellierung</t>
@@ -459,9 +459,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,42 +479,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -549,9 +537,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +590,21 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -904,30 +904,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -935,18 +935,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>0.58333333333333337</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -954,684 +954,684 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>0.125</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="18">
         <v>0.20833333333333334</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>0.125</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="19" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>0.125</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21">
+      <c r="D11" s="21"/>
+      <c r="E11" s="17">
         <v>0.125</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>0.125</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="51">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="46">
         <v>2.125</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
+      <c r="D13" s="21"/>
+      <c r="E13" s="17">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="36" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>0.125</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="5"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="27"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="32" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="30">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="38"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="36" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="31">
         <v>0.125</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="31" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F30" s="38"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="31" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="34">
         <v>0.25</v>
       </c>
-      <c r="F31" s="38"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="36" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:13" ht="30">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="54">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="49">
         <v>6.916666666666667</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="32" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="32" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="38"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="38"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="43"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="38"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="43"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="31">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="48">
         <v>1.25</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="52"/>
+      <c r="F44" s="38"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="30">
         <v>0.125</v>
       </c>
-      <c r="F45" s="43"/>
+      <c r="F45" s="38"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="43"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="38"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="32" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="29">
         <v>3.75</v>
       </c>
-      <c r="F47" s="43"/>
+      <c r="F47" s="38"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="32" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="29">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F48" s="43"/>
+      <c r="F48" s="38"/>
     </row>
     <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="55">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="50">
         <v>7.75</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="43"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="29">
         <v>4.166666666666667</v>
       </c>
-      <c r="F51" s="43"/>
+      <c r="F51" s="38"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="29">
         <v>2.0833333333333335</v>
       </c>
-      <c r="F52" s="43"/>
+      <c r="F52" s="38"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F53" s="43"/>
+      <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="32" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="43"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="38"/>
     </row>
     <row r="55" spans="1:6" ht="30">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="31" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="31">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="9" t="s">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="39">
+      <c r="D56" s="32"/>
+      <c r="E56" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="41"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="39">
+      <c r="D57" s="8"/>
+      <c r="E57" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49">
+      <c r="D58" s="43"/>
+      <c r="E58" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/MS1/Konzept/Projektplan.xlsx
+++ b/MS1/Konzept/Projektplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDB1614-8BBB-4E19-95AB-24EE3988CD53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3906CD45-9BC5-4DB1-B072-7BB4F60ED850}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -39,10 +39,10 @@
     <t>2.Unteraktivität</t>
   </si>
   <si>
-    <t>Workload geplant</t>
-  </si>
-  <si>
-    <t>Workload tatsächlich</t>
+    <t>Workload geplant (Std.)</t>
+  </si>
+  <si>
+    <t>Workload tatsächlich (Std.)</t>
   </si>
   <si>
     <t>David</t>
@@ -156,10 +156,16 @@
     <t>Benutzermodellierung</t>
   </si>
   <si>
+    <t>Aufgabenmodellierung</t>
+  </si>
+  <si>
     <t>Erfordernis- / Anforderungsermittlung</t>
   </si>
   <si>
-    <t>UseCases (Aufgabenmodellierung)</t>
+    <t>Benutzungsmodelle</t>
+  </si>
+  <si>
+    <t>Kommunikationsmodelle (Detail)</t>
   </si>
   <si>
     <t>Designmodellierung</t>
@@ -177,6 +183,9 @@
     <t>Datenstrukturen</t>
   </si>
   <si>
+    <t>Datenstruktur</t>
+  </si>
+  <si>
     <t>Algorithmus-Rechereche</t>
   </si>
   <si>
@@ -189,7 +198,10 @@
     <t>Userinterface</t>
   </si>
   <si>
-    <t>UI - Design</t>
+    <t>UI - Design (Styleguide)</t>
+  </si>
+  <si>
+    <t>Ui - Prototyp</t>
   </si>
   <si>
     <t>Evaluation</t>
@@ -450,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -520,6 +532,103 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="46" fontId="3" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -535,102 +644,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="46" fontId="3" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -937,7 +952,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -950,13 +965,13 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -972,10 +987,10 @@
       <c r="E3" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="27">
         <v>0.625</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -986,9 +1001,9 @@
         <v>10</v>
       </c>
       <c r="D4" s="24"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="55" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="50" t="s">
         <v>11</v>
       </c>
     </row>
@@ -999,10 +1014,10 @@
       <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>0.125</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="29">
         <v>0.25</v>
       </c>
       <c r="G5" s="1"/>
@@ -1014,10 +1029,10 @@
       <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="28">
         <v>0.125</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="1"/>
@@ -1029,33 +1044,33 @@
         <v>14</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="28">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <v>0.125</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="22"/>
@@ -1064,10 +1079,10 @@
       <c r="D10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G10" s="1"/>
@@ -1079,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="24"/>
-      <c r="E11" s="33">
+      <c r="E11" s="28">
         <v>0.125</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <v>0.125</v>
       </c>
       <c r="G11" s="1"/>
@@ -1099,8 +1114,8 @@
       <c r="E12" s="17">
         <v>2.6666666666666665</v>
       </c>
-      <c r="F12" s="32">
-        <v>3.1666666666666665</v>
+      <c r="F12" s="27">
+        <v>3.375</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1111,10 +1126,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="33">
+      <c r="E13" s="28">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>0.16666666666666666</v>
       </c>
       <c r="G13" s="1"/>
@@ -1126,8 +1141,8 @@
         <v>21</v>
       </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -1137,10 +1152,10 @@
       <c r="D15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="28">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="29">
         <v>0.20833333333333334</v>
       </c>
       <c r="G15" s="1"/>
@@ -1148,14 +1163,14 @@
     <row r="16" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="52">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="53">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G16" s="1"/>
@@ -1163,14 +1178,14 @@
     <row r="17" spans="1:8">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="37">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="38">
         <v>0.20833333333333334</v>
       </c>
       <c r="G17" s="1"/>
@@ -1178,14 +1193,14 @@
     <row r="18" spans="1:8">
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="38">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G18" s="1"/>
@@ -1197,10 +1212,10 @@
       <c r="D19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="28">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G19" s="1"/>
@@ -1208,14 +1223,14 @@
     <row r="20" spans="1:8">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="38">
         <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="1"/>
@@ -1227,10 +1242,10 @@
       <c r="D21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="28">
         <v>0.125</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="29">
         <v>0.125</v>
       </c>
       <c r="G21" s="1"/>
@@ -1238,14 +1253,14 @@
     <row r="22" spans="1:8">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="37">
         <v>0.125</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="38">
         <v>0.125</v>
       </c>
       <c r="G22" s="1"/>
@@ -1253,17 +1268,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="38">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="22"/>
@@ -1272,25 +1287,25 @@
       <c r="D24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="29">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="37">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="38">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G25" s="1"/>
@@ -1298,14 +1313,14 @@
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="8"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="38">
         <v>0.25</v>
       </c>
       <c r="G26" s="1"/>
@@ -1313,27 +1328,27 @@
     <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="56" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="61"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="56"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="9"/>
@@ -1345,36 +1360,36 @@
       <c r="E29" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="57">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F30" s="49">
-        <v>1.25</v>
+      <c r="F30" s="44">
+        <v>1.4583333333333333</v>
       </c>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="48"/>
+      <c r="D31" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="44">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1388,9 +1403,9 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="20">
-        <v>6.916666666666667</v>
-      </c>
-      <c r="F32" s="36"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="9"/>
@@ -1399,8 +1414,8 @@
         <v>41</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="38"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="9"/>
@@ -1409,46 +1424,46 @@
       <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="D37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F37" s="38"/>
+      <c r="E37" s="30">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="9"/>
@@ -1457,20 +1472,22 @@
       <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="38"/>
+      <c r="E39" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="9"/>
@@ -1479,10 +1496,10 @@
       <c r="D40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="35">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F40" s="38"/>
+      <c r="E40" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="9"/>
@@ -1491,8 +1508,8 @@
         <v>49</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="9"/>
@@ -1501,24 +1518,20 @@
       <c r="D42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F42" s="38"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="18"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="9"/>
@@ -1527,162 +1540,212 @@
       <c r="D44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="63">
         <v>0.125</v>
       </c>
-      <c r="F44" s="38"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="E45" s="19">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="35">
-        <v>3.75</v>
-      </c>
-      <c r="F46" s="38"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1">
+      <c r="E46" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="30">
+        <v>3.75</v>
+      </c>
+      <c r="F49" s="33"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="30">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F47" s="38"/>
-    </row>
-    <row r="48" spans="1:13" ht="30">
-      <c r="A48" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="21">
+      <c r="F51" s="33"/>
+    </row>
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="21">
         <v>8.8333333333333339</v>
       </c>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="38"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="35">
-        <v>5</v>
-      </c>
-      <c r="F50" s="38"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="35">
-        <v>2.5</v>
-      </c>
-      <c r="F51" s="38"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F52" s="38"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="38"/>
-    </row>
-    <row r="54" spans="1:6" ht="30">
+      <c r="D53" s="3"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="19">
-        <v>0.625</v>
-      </c>
-      <c r="F54" s="38"/>
+      <c r="E54" s="30">
+        <v>5</v>
+      </c>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="35">
-        <v>0.125</v>
-      </c>
-      <c r="F55" s="38"/>
+      <c r="E55" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="35">
+      <c r="E56" s="30">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:6" ht="30">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F56" s="38"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="39">
+      <c r="F60" s="33"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F57" s="40"/>
+      <c r="F61" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
